--- a/downloaded_files/MTHS114_Lecture-35050.xlsx
+++ b/downloaded_files/MTHS114_Lecture-35050.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -357,6 +357,15 @@
     <x:t>Mariam Sherif Aly Hassaballa</x:t>
   </x:si>
   <x:si>
+    <x:t>1230258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى احمد عبدالكريم احمد ابو السعادات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moustafa Ahmed Abdelkarim Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230116</x:t>
   </x:si>
   <x:si>
@@ -364,6 +373,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Samir Mohamed Younis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى ياسر محمد محمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Yasser Mohammed Mohammed Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1230117</x:t>
@@ -533,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2076,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45917.4341184838</x:v>
+        <x:v>45921.5080363426</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5077888889</x:v>
+        <x:v>45917.4341184838</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45921.5084000347</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45915.5077888889</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45909.4149600694</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2268,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2285,6 +2303,70 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45907.420059456</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS114_Lecture-35050.xlsx
+++ b/downloaded_files/MTHS114_Lecture-35050.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Abdalla Saad Elsayed Abdelhamid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على اشرف على حسن السنان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ashraf Ali Hassan Elsanan</x:t>
   </x:si>
   <x:si>
     <x:t>1230072</x:t>
@@ -551,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1646,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5085092245</x:v>
+        <x:v>45923.5292795949</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1687,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45915.5085092245</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1751,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5072310532</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4199905093</x:v>
+        <x:v>45915.5072310532</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5073887384</x:v>
+        <x:v>45907.4199905093</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4199702894</x:v>
+        <x:v>45915.5073887384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4199702894</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.5070099884</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4150237269</x:v>
+        <x:v>45915.5070099884</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.4463732292</x:v>
+        <x:v>45909.4150237269</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4195762384</x:v>
+        <x:v>45914.4463732292</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4198728009</x:v>
+        <x:v>45907.4195762384</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45921.5080363426</x:v>
+        <x:v>45907.4198728009</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45917.4341184838</x:v>
+        <x:v>45921.5080363426</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45921.5084000347</x:v>
+        <x:v>45917.4341184838</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5077888889</x:v>
+        <x:v>45921.5084000347</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45915.5077888889</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45909.4149600694</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2350,7 +2359,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2367,6 +2376,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS114_Lecture-35050.xlsx
+++ b/downloaded_files/MTHS114_Lecture-35050.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد كريم احمد على الحملي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
   </x:si>
   <x:si>
     <x:t>1230251</x:t>
@@ -560,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2039,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.4463732292</x:v>
+        <x:v>45926.4509313657</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4195762384</x:v>
+        <x:v>45914.4463732292</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4198728009</x:v>
+        <x:v>45907.4195762384</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.5080363426</x:v>
+        <x:v>45907.4198728009</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45917.4341184838</x:v>
+        <x:v>45921.5080363426</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45921.5084000347</x:v>
+        <x:v>45917.4341184838</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5077888889</x:v>
+        <x:v>45921.5084000347</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45915.5077888889</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45909.4149600694</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45906.6698939468</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2391,7 +2400,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2408,6 +2417,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS114_Lecture-35050.xlsx
+++ b/downloaded_files/MTHS114_Lecture-35050.xlsx
@@ -249,6 +249,15 @@
     <x:t>Omar Ahmed Raafat Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1161335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam El Din Abdel Raouf</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230075</x:t>
   </x:si>
   <x:si>
@@ -337,15 +346,6 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد كريم احمد على الحملي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
   </x:si>
   <x:si>
     <x:t>1230251</x:t>
@@ -1728,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45927.5726823727</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1760,7 +1760,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1792,7 +1792,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5072310532</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1824,7 +1824,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4199905093</x:v>
+        <x:v>45915.5072310532</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1856,7 +1856,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5073887384</x:v>
+        <x:v>45907.4199905093</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1888,7 +1888,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4199702894</x:v>
+        <x:v>45915.5073887384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1920,7 +1920,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4199702894</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1952,7 +1952,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1984,7 +1984,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.5070099884</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2016,7 +2016,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4150237269</x:v>
+        <x:v>45915.5070099884</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2048,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45926.4509313657</x:v>
+        <x:v>45909.4150237269</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>

--- a/downloaded_files/MTHS114_Lecture-35050.xlsx
+++ b/downloaded_files/MTHS114_Lecture-35050.xlsx
@@ -420,15 +420,6 @@
     <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
-    <x:t>1210392</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنا وليد محمد طاهر محمد الصعيدى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hana Walid Mohamed Taher Mohamed Elseidy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230129</x:t>
   </x:si>
   <x:si>
@@ -454,6 +445,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Muhammed Abd ElRahman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2336,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6698939468</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2400,7 +2400,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2432,7 +2432,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45928.8549841435</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>

--- a/downloaded_files/MTHS114_Lecture-35050.xlsx
+++ b/downloaded_files/MTHS114_Lecture-35050.xlsx
@@ -84,7 +84,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1220225</x:t>

--- a/downloaded_files/MTHS114_Lecture-35050.xlsx
+++ b/downloaded_files/MTHS114_Lecture-35050.xlsx
@@ -210,7 +210,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220096</x:t>
@@ -246,7 +246,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1161335</x:t>
@@ -345,7 +345,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1230251</x:t>
@@ -878,7 +878,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.350625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="49.230625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
